--- a/Dataset/15/낮과밤_학습(15)/낮과밤13.xlsx
+++ b/Dataset/15/낮과밤_학습(15)/낮과밤13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\낮과밤_학습(15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6E40BD-0833-4939-93E1-CAA8D5ED8086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0760A2-9ECF-4C47-9190-66D908CE2648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3326" yWindow="3326" windowWidth="16328" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1509" yWindow="1509" windowWidth="16328" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4813,7 +4813,7 @@
   <dimension ref="A1:F735"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4854,7 +4854,6 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" si="0">IF(ISBLANK(F2),D2,F2)</f>
         <v>0</v>
       </c>
     </row>
@@ -4869,11 +4868,10 @@
         <v>1.488879974931479E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">IF(C3&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D3:D66" si="0">IF(C3&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4888,11 +4886,10 @@
         <v>1.4862894080579281E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4907,11 +4904,10 @@
         <v>0.98433685302734375</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4926,11 +4922,10 @@
         <v>1.4220874756574631E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4945,11 +4940,10 @@
         <v>1.5733521431684491E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4964,11 +4958,10 @@
         <v>1.492485962808132E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4983,11 +4976,10 @@
         <v>1.945593394339085E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5002,11 +4994,10 @@
         <v>1.461714040488005E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5021,11 +5012,10 @@
         <v>1.422479189932346E-2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5040,11 +5030,10 @@
         <v>0.98805350065231323</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12">
@@ -5062,11 +5051,10 @@
         <v>1.513863168656826E-2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5081,11 +5069,10 @@
         <v>1.6456194221973419E-2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5100,11 +5087,10 @@
         <v>1.467529684305191E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5119,11 +5105,10 @@
         <v>1.487239450216293E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5138,11 +5123,10 @@
         <v>1.4220708049833769E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5157,11 +5141,10 @@
         <v>1.4468874782323841E-2</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5176,11 +5159,10 @@
         <v>1.6242079436779019E-2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5195,11 +5177,10 @@
         <v>1.6108466312289241E-2</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5214,11 +5195,10 @@
         <v>1.4231976121664051E-2</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5233,11 +5213,10 @@
         <v>3.9674948900938027E-2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5252,11 +5231,10 @@
         <v>1.4514720067381861E-2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5271,11 +5249,10 @@
         <v>1.420966256409883E-2</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5290,11 +5267,10 @@
         <v>1.4190231449902059E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5309,11 +5285,10 @@
         <v>1.73347108066082E-2</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5328,11 +5303,10 @@
         <v>1.6565453261137009E-2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5347,11 +5321,10 @@
         <v>1.419928669929504E-2</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5366,11 +5339,10 @@
         <v>1.856167241930962E-2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5385,11 +5357,10 @@
         <v>1.433172915130854E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5404,11 +5375,10 @@
         <v>2.847885899245739E-2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5423,11 +5393,10 @@
         <v>1.430419832468033E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5442,11 +5411,10 @@
         <v>1.50069510564208E-2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5461,11 +5429,10 @@
         <v>0.77369821071624756</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34">
@@ -5483,11 +5450,10 @@
         <v>1.6817431896924969E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5502,11 +5468,10 @@
         <v>1.42788402736187E-2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5521,11 +5486,10 @@
         <v>1.421965751796961E-2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5540,11 +5504,10 @@
         <v>2.2561876103281971E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5559,11 +5522,10 @@
         <v>1.543297711759806E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5578,11 +5540,10 @@
         <v>1.456197444349527E-2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5597,11 +5558,10 @@
         <v>1.4771701768040661E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5616,11 +5576,10 @@
         <v>1.437951065599918E-2</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5635,11 +5594,10 @@
         <v>1.473904494196177E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5654,11 +5612,10 @@
         <v>1.438409276306629E-2</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5673,11 +5630,10 @@
         <v>3.6998633295297623E-2</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5692,11 +5648,10 @@
         <v>1.837776601314545E-2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5711,11 +5666,10 @@
         <v>1.4284230768680571E-2</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5730,11 +5684,10 @@
         <v>1.470321975648403E-2</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5749,11 +5702,10 @@
         <v>4.048258438706398E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5768,11 +5720,10 @@
         <v>0.3310905396938324</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5787,11 +5738,10 @@
         <v>1.4654583297669889E-2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5806,11 +5756,10 @@
         <v>1.564835570752621E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5825,11 +5774,10 @@
         <v>0.33109018206596369</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5844,11 +5792,10 @@
         <v>1.4675957150757309E-2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5863,11 +5810,10 @@
         <v>1.43900765106082E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5882,11 +5828,10 @@
         <v>1.4359439723193651E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5901,11 +5846,10 @@
         <v>1.422603614628315E-2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5920,11 +5864,10 @@
         <v>1.505630649626255E-2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5939,11 +5882,10 @@
         <v>4.4761132448911667E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5958,11 +5900,10 @@
         <v>0.96035271883010864</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F60">
@@ -5980,11 +5921,10 @@
         <v>1.52770159766078E-2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5999,11 +5939,10 @@
         <v>1.4272270724177361E-2</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6018,11 +5957,10 @@
         <v>1.4247069135308269E-2</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6037,11 +5975,10 @@
         <v>1.9885243847966191E-2</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6056,11 +5993,10 @@
         <v>1.439621206372976E-2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6075,11 +6011,10 @@
         <v>1.416919566690922E-2</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="2">IF(ISBLANK(F66),D66,F66)</f>
         <v>0</v>
       </c>
     </row>
@@ -6094,11 +6029,10 @@
         <v>1.467309053987265E-2</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="3">IF(C67&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D67:D130" si="1">IF(C67&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6113,11 +6047,10 @@
         <v>1.445333939045668E-2</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6132,11 +6065,10 @@
         <v>1.458094082772732E-2</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6151,11 +6083,10 @@
         <v>0.22283756732940671</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6170,11 +6101,10 @@
         <v>1.434132363647223E-2</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6189,11 +6119,10 @@
         <v>1.446250639855862E-2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6208,11 +6137,10 @@
         <v>5.050349235534668E-2</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6227,11 +6155,10 @@
         <v>1.6740754246711731E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6246,11 +6173,10 @@
         <v>1.427697390317917E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6265,11 +6191,10 @@
         <v>1.4261285774409769E-2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6284,11 +6209,10 @@
         <v>5.2256390452384949E-2</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6303,11 +6227,10 @@
         <v>1.4322611503303049E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6322,11 +6245,10 @@
         <v>1.58870555460453E-2</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6341,11 +6263,10 @@
         <v>0.99057722091674805</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F80">
@@ -6363,11 +6284,10 @@
         <v>0.99043816328048706</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F81">
@@ -6385,11 +6305,10 @@
         <v>2.3502392694354061E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6404,11 +6323,10 @@
         <v>0.99059182405471802</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F83">
@@ -6426,11 +6344,10 @@
         <v>1.426758244633675E-2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6445,11 +6362,10 @@
         <v>1.61849819123745E-2</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6464,11 +6380,10 @@
         <v>1.481529884040356E-2</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6483,11 +6398,10 @@
         <v>1.449586637318134E-2</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6502,11 +6416,10 @@
         <v>0.98820763826370239</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6521,11 +6434,10 @@
         <v>1.421455945819616E-2</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6540,11 +6452,10 @@
         <v>1.4678598381578921E-2</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6559,11 +6470,10 @@
         <v>1.487103756517172E-2</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6578,11 +6488,10 @@
         <v>0.97905385494232178</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6597,11 +6506,10 @@
         <v>1.4276390895247459E-2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6616,11 +6524,10 @@
         <v>0.90893477201461792</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F94">
@@ -6638,11 +6545,10 @@
         <v>0.98665893077850342</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6657,11 +6563,10 @@
         <v>1.67770478874445E-2</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6676,11 +6581,10 @@
         <v>0.90893477201461792</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F97">
@@ -6698,11 +6602,10 @@
         <v>0.78231912851333618</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6717,11 +6620,10 @@
         <v>1.4531774446368219E-2</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6736,11 +6638,10 @@
         <v>1.4170980080962179E-2</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6755,11 +6656,10 @@
         <v>0.3310951292514801</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6774,11 +6674,10 @@
         <v>1.9475743174552921E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6793,11 +6692,10 @@
         <v>2.5791836902499199E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E103">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6812,11 +6710,10 @@
         <v>3.14641073346138E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6831,11 +6728,10 @@
         <v>1.430789567530155E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6850,11 +6746,10 @@
         <v>1.4168922789394861E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E106">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6869,11 +6764,10 @@
         <v>3.3068791031837463E-2</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E107">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6888,11 +6782,10 @@
         <v>1.444845739752054E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6907,11 +6800,10 @@
         <v>5.9138599783182137E-2</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E109">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6926,11 +6818,10 @@
         <v>1.4160518534481531E-2</v>
       </c>
       <c r="D110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E110">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6945,11 +6836,10 @@
         <v>0.33109578490257258</v>
       </c>
       <c r="D111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E111">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6964,11 +6854,10 @@
         <v>1.4526251703500749E-2</v>
       </c>
       <c r="D112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E112">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6983,11 +6872,10 @@
         <v>1.545075140893459E-2</v>
       </c>
       <c r="D113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E113">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7002,11 +6890,10 @@
         <v>1.4393750578165051E-2</v>
       </c>
       <c r="D114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E114">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7021,11 +6908,10 @@
         <v>1.4522804878652099E-2</v>
       </c>
       <c r="D115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E115">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7040,11 +6926,10 @@
         <v>1.4546927995979789E-2</v>
       </c>
       <c r="D116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7059,11 +6944,10 @@
         <v>1.435875799506903E-2</v>
       </c>
       <c r="D117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7078,11 +6962,10 @@
         <v>1.4417974278330799E-2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E118">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7097,11 +6980,10 @@
         <v>1.7404899001121521E-2</v>
       </c>
       <c r="D119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7116,11 +6998,10 @@
         <v>1.5463924035429949E-2</v>
       </c>
       <c r="D120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E120">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7135,11 +7016,10 @@
         <v>1.951339095830917E-2</v>
       </c>
       <c r="D121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E121">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7154,11 +7034,10 @@
         <v>0.90976351499557495</v>
       </c>
       <c r="D122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E122">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7173,11 +7052,10 @@
         <v>2.683527767658234E-2</v>
       </c>
       <c r="D123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E123">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7192,11 +7070,10 @@
         <v>1.9524076953530312E-2</v>
       </c>
       <c r="D124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E124">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7211,11 +7088,10 @@
         <v>1.416874211281538E-2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E125">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7230,11 +7106,10 @@
         <v>1.539190486073494E-2</v>
       </c>
       <c r="D126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E126">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7249,11 +7124,10 @@
         <v>1.5890456736087799E-2</v>
       </c>
       <c r="D127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7268,11 +7142,10 @@
         <v>1.419189386069775E-2</v>
       </c>
       <c r="D128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7287,11 +7160,10 @@
         <v>1.9287912175059319E-2</v>
       </c>
       <c r="D129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7306,11 +7178,10 @@
         <v>1.4406595379114149E-2</v>
       </c>
       <c r="D130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="4">IF(ISBLANK(F130),D130,F130)</f>
         <v>0</v>
       </c>
     </row>
@@ -7325,11 +7196,10 @@
         <v>1.4875104650855059E-2</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="5">IF(C131&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D131:D194" si="2">IF(C131&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7344,11 +7214,10 @@
         <v>1.459177769720554E-2</v>
       </c>
       <c r="D132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E132">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7363,11 +7232,10 @@
         <v>1.6222767531871799E-2</v>
       </c>
       <c r="D133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E133">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7382,11 +7250,10 @@
         <v>0.98952871561050415</v>
       </c>
       <c r="D134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E134">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7401,11 +7268,10 @@
         <v>1.42108453437686E-2</v>
       </c>
       <c r="D135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E135">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7420,11 +7286,10 @@
         <v>1.4338471926748751E-2</v>
       </c>
       <c r="D136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7439,11 +7304,10 @@
         <v>1.4201276004314419E-2</v>
       </c>
       <c r="D137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7458,11 +7322,10 @@
         <v>1.4950155280530449E-2</v>
       </c>
       <c r="D138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7477,11 +7340,10 @@
         <v>0.1044721081852913</v>
       </c>
       <c r="D139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E139">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7496,11 +7358,10 @@
         <v>2.0769365131855011E-2</v>
       </c>
       <c r="D140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7515,11 +7376,10 @@
         <v>1.456952374428511E-2</v>
       </c>
       <c r="D141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E141">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7534,11 +7394,10 @@
         <v>1.432081311941147E-2</v>
       </c>
       <c r="D142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7553,11 +7412,10 @@
         <v>1.426450535655022E-2</v>
       </c>
       <c r="D143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E143">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7572,11 +7430,10 @@
         <v>1.813501305878162E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7591,11 +7448,10 @@
         <v>1.4241712167859079E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E145">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7610,11 +7466,10 @@
         <v>3.7906430661678307E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7629,11 +7484,10 @@
         <v>1.437684800475836E-2</v>
       </c>
       <c r="D147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E147">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7648,11 +7502,10 @@
         <v>1.584175601601601E-2</v>
       </c>
       <c r="D148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E148">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7667,11 +7520,10 @@
         <v>2.5506403297185901E-2</v>
       </c>
       <c r="D149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7686,11 +7538,10 @@
         <v>2.4770535528659821E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7705,11 +7556,10 @@
         <v>1.450006291270256E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7724,11 +7574,10 @@
         <v>1.431154832243919E-2</v>
       </c>
       <c r="D152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E152">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7743,11 +7592,10 @@
         <v>1.9547151401638981E-2</v>
       </c>
       <c r="D153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E153">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7762,11 +7610,10 @@
         <v>5.3978651762008667E-2</v>
       </c>
       <c r="D154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7781,11 +7628,10 @@
         <v>3.7995986640453339E-2</v>
       </c>
       <c r="D155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E155">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7800,11 +7646,10 @@
         <v>1.4196230098605159E-2</v>
       </c>
       <c r="D156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E156">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7819,11 +7664,10 @@
         <v>1.513143163174391E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7838,11 +7682,10 @@
         <v>1.4309152960777279E-2</v>
       </c>
       <c r="D158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7857,11 +7700,10 @@
         <v>0.84289836883544922</v>
       </c>
       <c r="D159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E159">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F159">
@@ -7879,11 +7721,10 @@
         <v>1.520147919654846E-2</v>
       </c>
       <c r="D160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E160">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7898,11 +7739,10 @@
         <v>0.25196519494056702</v>
       </c>
       <c r="D161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E161">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7917,11 +7757,10 @@
         <v>1.4258787035942079E-2</v>
       </c>
       <c r="D162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E162">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7936,11 +7775,10 @@
         <v>1.420586928725243E-2</v>
       </c>
       <c r="D163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E163">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7955,11 +7793,10 @@
         <v>1.43445385619998E-2</v>
       </c>
       <c r="D164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E164">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7974,11 +7811,10 @@
         <v>1.498744543641806E-2</v>
       </c>
       <c r="D165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E165">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7993,11 +7829,10 @@
         <v>1.6016179695725441E-2</v>
       </c>
       <c r="D166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E166">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8012,11 +7847,10 @@
         <v>1.4874761924147609E-2</v>
       </c>
       <c r="D167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8031,11 +7865,10 @@
         <v>3.947044163942337E-2</v>
       </c>
       <c r="D168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E168">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8050,11 +7883,10 @@
         <v>1.4190691523253919E-2</v>
       </c>
       <c r="D169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E169">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8069,11 +7901,10 @@
         <v>1.421238202601671E-2</v>
       </c>
       <c r="D170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E170">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8088,11 +7919,10 @@
         <v>3.6691632121801383E-2</v>
       </c>
       <c r="D171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E171">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8107,11 +7937,10 @@
         <v>2.330493368208408E-2</v>
       </c>
       <c r="D172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E172">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8126,11 +7955,10 @@
         <v>1.419380679726601E-2</v>
       </c>
       <c r="D173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E173">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8145,11 +7973,10 @@
         <v>1.4256252907216551E-2</v>
       </c>
       <c r="D174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E174">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8164,11 +7991,10 @@
         <v>1.430676691234112E-2</v>
       </c>
       <c r="D175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E175">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8183,11 +8009,10 @@
         <v>1.921424642205238E-2</v>
       </c>
       <c r="D176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8202,11 +8027,10 @@
         <v>1.4548406004905701E-2</v>
       </c>
       <c r="D177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E177">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8221,11 +8045,10 @@
         <v>1.418275013566017E-2</v>
       </c>
       <c r="D178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E178">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8240,11 +8063,10 @@
         <v>1.4215688221156601E-2</v>
       </c>
       <c r="D179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E179">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8259,11 +8081,10 @@
         <v>1.4469418674707409E-2</v>
       </c>
       <c r="D180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E180">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8278,11 +8099,10 @@
         <v>3.1317427754402161E-2</v>
       </c>
       <c r="D181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E181">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8297,11 +8117,10 @@
         <v>1.4174112118780609E-2</v>
       </c>
       <c r="D182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E182">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8316,11 +8135,10 @@
         <v>1.417741645127535E-2</v>
       </c>
       <c r="D183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E183">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8335,11 +8153,10 @@
         <v>1.435988489538431E-2</v>
       </c>
       <c r="D184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E184">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8354,11 +8171,10 @@
         <v>1.4371125958859921E-2</v>
       </c>
       <c r="D185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E185">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8373,11 +8189,10 @@
         <v>1.420474052429199E-2</v>
       </c>
       <c r="D186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E186">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8392,11 +8207,10 @@
         <v>1.422383636236191E-2</v>
       </c>
       <c r="D187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E187">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8411,11 +8225,10 @@
         <v>1.9863853231072429E-2</v>
       </c>
       <c r="D188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E188">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8430,11 +8243,10 @@
         <v>1.4517012052237989E-2</v>
       </c>
       <c r="D189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E189">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8449,11 +8261,10 @@
         <v>1.422557514160872E-2</v>
       </c>
       <c r="D190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E190">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8468,11 +8279,10 @@
         <v>0.14495100080966949</v>
       </c>
       <c r="D191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E191">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8487,11 +8297,10 @@
         <v>0.87204670906066895</v>
       </c>
       <c r="D192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E192">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F192">
@@ -8509,11 +8318,10 @@
         <v>1.8963713198900219E-2</v>
       </c>
       <c r="D193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E193">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8528,11 +8336,10 @@
         <v>0.99030530452728271</v>
       </c>
       <c r="D194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E257" si="6">IF(ISBLANK(F194),D194,F194)</f>
         <v>1</v>
       </c>
     </row>
@@ -8547,11 +8354,10 @@
         <v>1.473253779113293E-2</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="7">IF(C195&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D195:D258" si="3">IF(C195&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E195">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8566,11 +8372,10 @@
         <v>0.2003121227025986</v>
       </c>
       <c r="D196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E196">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8585,11 +8390,10 @@
         <v>2.2180696949362751E-2</v>
       </c>
       <c r="D197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E197">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8604,11 +8408,10 @@
         <v>2.3458564653992649E-2</v>
       </c>
       <c r="D198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E198">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8623,11 +8426,10 @@
         <v>1.454811170697212E-2</v>
       </c>
       <c r="D199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E199">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8642,11 +8444,10 @@
         <v>2.2905571386218071E-2</v>
       </c>
       <c r="D200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E200">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8661,11 +8462,10 @@
         <v>1.5175118111073971E-2</v>
       </c>
       <c r="D201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E201">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8680,11 +8480,10 @@
         <v>0.99059087038040161</v>
       </c>
       <c r="D202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E202">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8699,11 +8498,10 @@
         <v>1.448934245854616E-2</v>
       </c>
       <c r="D203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E203">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8718,11 +8516,10 @@
         <v>1.4514412730932239E-2</v>
       </c>
       <c r="D204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E204">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8737,11 +8534,10 @@
         <v>0.33107134699821472</v>
       </c>
       <c r="D205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E205">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8756,11 +8552,10 @@
         <v>0.33110421895980829</v>
       </c>
       <c r="D206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E206">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8775,11 +8570,10 @@
         <v>1.4158256351947779E-2</v>
       </c>
       <c r="D207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E207">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8794,11 +8588,10 @@
         <v>1.5231975354254249E-2</v>
       </c>
       <c r="D208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E208">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8813,11 +8606,10 @@
         <v>1.456256397068501E-2</v>
       </c>
       <c r="D209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E209">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8832,11 +8624,10 @@
         <v>0.90506631135940552</v>
       </c>
       <c r="D210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E210">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F210">
@@ -8854,11 +8645,10 @@
         <v>1.5268381685018539E-2</v>
       </c>
       <c r="D211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E211">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8873,11 +8663,10 @@
         <v>1.431285310536623E-2</v>
       </c>
       <c r="D212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E212">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8892,11 +8681,10 @@
         <v>1.5696000307798389E-2</v>
       </c>
       <c r="D213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E213">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8911,11 +8699,10 @@
         <v>1.46181620657444E-2</v>
       </c>
       <c r="D214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E214">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8930,11 +8717,10 @@
         <v>1.4293370768427851E-2</v>
       </c>
       <c r="D215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E215">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8949,11 +8735,10 @@
         <v>1.4398207888007161E-2</v>
       </c>
       <c r="D216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E216">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8968,11 +8753,10 @@
         <v>1.5962619334459301E-2</v>
       </c>
       <c r="D217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E217">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8987,11 +8771,10 @@
         <v>3.073978237807751E-2</v>
       </c>
       <c r="D218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E218">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9006,11 +8789,10 @@
         <v>1.4641521498560911E-2</v>
       </c>
       <c r="D219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E219">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9025,11 +8807,10 @@
         <v>1.502952259033918E-2</v>
       </c>
       <c r="D220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E220">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9044,11 +8825,10 @@
         <v>1.521141082048416E-2</v>
       </c>
       <c r="D221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E221">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9063,11 +8843,10 @@
         <v>1.7145132645964619E-2</v>
       </c>
       <c r="D222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E222">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9082,11 +8861,10 @@
         <v>3.4751679748296738E-2</v>
       </c>
       <c r="D223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E223">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9101,11 +8879,10 @@
         <v>1.4863851480185991E-2</v>
       </c>
       <c r="D224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E224">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9120,11 +8897,10 @@
         <v>1.429504342377186E-2</v>
       </c>
       <c r="D225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E225">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9139,11 +8915,10 @@
         <v>0.86177211999893188</v>
       </c>
       <c r="D226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E226">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F226">
@@ -9161,11 +8936,10 @@
         <v>1.4919771812856201E-2</v>
       </c>
       <c r="D227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E227">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9180,11 +8954,10 @@
         <v>1.4279564842581751E-2</v>
       </c>
       <c r="D228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E228">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9199,11 +8972,10 @@
         <v>1.4445000328123569E-2</v>
       </c>
       <c r="D229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E229">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9218,11 +8990,10 @@
         <v>1.4371977187693121E-2</v>
       </c>
       <c r="D230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E230">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9237,11 +9008,10 @@
         <v>3.6511074751615517E-2</v>
       </c>
       <c r="D231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E231">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9256,11 +9026,10 @@
         <v>1.5103167854249481E-2</v>
       </c>
       <c r="D232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E232">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9275,11 +9044,10 @@
         <v>2.43895910680294E-2</v>
       </c>
       <c r="D233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E233">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9294,11 +9062,10 @@
         <v>1.553126331418753E-2</v>
       </c>
       <c r="D234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E234">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9313,11 +9080,10 @@
         <v>2.5007639080286029E-2</v>
       </c>
       <c r="D235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E235">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9332,11 +9098,10 @@
         <v>3.6370381712913513E-2</v>
       </c>
       <c r="D236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E236">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9351,11 +9116,10 @@
         <v>0.99018645286560059</v>
       </c>
       <c r="D237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E237">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9370,11 +9134,10 @@
         <v>0.45866245031356812</v>
       </c>
       <c r="D238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E238">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9389,11 +9152,10 @@
         <v>1.4183462597429751E-2</v>
       </c>
       <c r="D239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E239">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9408,11 +9170,10 @@
         <v>1.4391559176146981E-2</v>
       </c>
       <c r="D240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E240">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9427,11 +9188,10 @@
         <v>1.444753352552652E-2</v>
       </c>
       <c r="D241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E241">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9446,11 +9206,10 @@
         <v>1.507831458002329E-2</v>
       </c>
       <c r="D242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E242">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9465,11 +9224,10 @@
         <v>1.4605770818889139E-2</v>
       </c>
       <c r="D243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E243">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9484,11 +9242,10 @@
         <v>0.98761343955993652</v>
       </c>
       <c r="D244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E244">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F244">
@@ -9506,11 +9263,10 @@
         <v>1.4301588758826259E-2</v>
       </c>
       <c r="D245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E245">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9525,11 +9281,10 @@
         <v>1.465984433889389E-2</v>
       </c>
       <c r="D246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E246">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9544,11 +9299,10 @@
         <v>1.4212441630661489E-2</v>
       </c>
       <c r="D247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E247">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9563,11 +9317,10 @@
         <v>2.4813897907733921E-2</v>
       </c>
       <c r="D248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E248">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9582,11 +9335,10 @@
         <v>1.575317420065403E-2</v>
       </c>
       <c r="D249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E249">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9601,11 +9353,10 @@
         <v>1.437965221703053E-2</v>
       </c>
       <c r="D250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E250">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9620,11 +9371,10 @@
         <v>1.422849670052528E-2</v>
       </c>
       <c r="D251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E251">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9639,11 +9389,10 @@
         <v>0.98504835367202759</v>
       </c>
       <c r="D252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E252">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9658,11 +9407,10 @@
         <v>1.4205534942448139E-2</v>
       </c>
       <c r="D253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E253">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9677,11 +9425,10 @@
         <v>1.6331139951944351E-2</v>
       </c>
       <c r="D254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E254">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9696,11 +9443,10 @@
         <v>3.0437888577580448E-2</v>
       </c>
       <c r="D255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E255">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9715,11 +9461,10 @@
         <v>2.1673884242773059E-2</v>
       </c>
       <c r="D256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E256">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9734,11 +9479,10 @@
         <v>1.6315236687660221E-2</v>
       </c>
       <c r="D257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E257">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9753,11 +9497,10 @@
         <v>2.161792479455471E-2</v>
       </c>
       <c r="D258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="8">IF(ISBLANK(F258),D258,F258)</f>
         <v>0</v>
       </c>
     </row>
@@ -9772,11 +9515,10 @@
         <v>1.4432705007493499E-2</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="9">IF(C259&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D259:D322" si="4">IF(C259&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E259">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9791,11 +9533,10 @@
         <v>1.4278281480073931E-2</v>
       </c>
       <c r="D260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E260">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9810,11 +9551,10 @@
         <v>1.4303417876362801E-2</v>
       </c>
       <c r="D261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E261">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9829,11 +9569,10 @@
         <v>2.1044094115495678E-2</v>
       </c>
       <c r="D262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E262">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9848,11 +9587,10 @@
         <v>1.5082621015608311E-2</v>
       </c>
       <c r="D263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E263">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9867,11 +9605,10 @@
         <v>1.4512531459331511E-2</v>
       </c>
       <c r="D264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E264">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9886,11 +9623,10 @@
         <v>1.616265811026096E-2</v>
       </c>
       <c r="D265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E265">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9905,11 +9641,10 @@
         <v>4.6731885522603989E-2</v>
       </c>
       <c r="D266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E266">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9924,11 +9659,10 @@
         <v>1.471899170428514E-2</v>
       </c>
       <c r="D267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E267">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9943,11 +9677,10 @@
         <v>1.420685742050409E-2</v>
       </c>
       <c r="D268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E268">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9962,11 +9695,10 @@
         <v>1.438172068446875E-2</v>
       </c>
       <c r="D269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E269">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9981,11 +9713,10 @@
         <v>3.8688428699970252E-2</v>
       </c>
       <c r="D270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E270">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10000,11 +9731,10 @@
         <v>1.5154031105339531E-2</v>
       </c>
       <c r="D271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E271">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10019,11 +9749,10 @@
         <v>1.444237399846315E-2</v>
       </c>
       <c r="D272">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E272">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10038,11 +9767,10 @@
         <v>1.425257418304682E-2</v>
       </c>
       <c r="D273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E273">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10057,11 +9785,10 @@
         <v>2.124308422207832E-2</v>
       </c>
       <c r="D274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E274">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10076,11 +9803,10 @@
         <v>7.3140747845172882E-2</v>
       </c>
       <c r="D275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E275">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10095,11 +9821,10 @@
         <v>1.4326596632599831E-2</v>
       </c>
       <c r="D276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E276">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10114,11 +9839,10 @@
         <v>1.4634209685027599E-2</v>
       </c>
       <c r="D277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E277">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10133,11 +9857,10 @@
         <v>2.4918891489505771E-2</v>
       </c>
       <c r="D278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E278">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10152,11 +9875,10 @@
         <v>1.4470690861344339E-2</v>
       </c>
       <c r="D279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E279">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10171,11 +9893,10 @@
         <v>1.451564114540815E-2</v>
       </c>
       <c r="D280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E280">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10190,11 +9911,10 @@
         <v>1.4804813079535959E-2</v>
       </c>
       <c r="D281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E281">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10209,11 +9929,10 @@
         <v>0.1885096728801727</v>
       </c>
       <c r="D282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E282">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10228,11 +9947,10 @@
         <v>1.430987287312746E-2</v>
       </c>
       <c r="D283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E283">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10247,11 +9965,10 @@
         <v>0.98967766761779785</v>
       </c>
       <c r="D284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E284">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F284">
@@ -10269,11 +9986,10 @@
         <v>1.501753367483616E-2</v>
       </c>
       <c r="D285">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E285">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10288,11 +10004,10 @@
         <v>1.541452668607235E-2</v>
       </c>
       <c r="D286">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E286">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10307,11 +10022,10 @@
         <v>0.97000026702880859</v>
       </c>
       <c r="D287">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E287">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F287">
@@ -10329,11 +10043,10 @@
         <v>1.582698151469231E-2</v>
       </c>
       <c r="D288">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E288">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10348,11 +10061,10 @@
         <v>1.797963306307793E-2</v>
       </c>
       <c r="D289">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E289">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10367,11 +10079,10 @@
         <v>0.36950132250785828</v>
       </c>
       <c r="D290">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E290">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10386,11 +10097,10 @@
         <v>1.4263639226555821E-2</v>
       </c>
       <c r="D291">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E291">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10405,11 +10115,10 @@
         <v>1.4791819266974929E-2</v>
       </c>
       <c r="D292">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E292">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10424,11 +10133,10 @@
         <v>1.457152981311083E-2</v>
       </c>
       <c r="D293">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E293">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10443,11 +10151,10 @@
         <v>0.99057590961456299</v>
       </c>
       <c r="D294">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E294">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10462,11 +10169,10 @@
         <v>1.5143018215894701E-2</v>
       </c>
       <c r="D295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E295">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10481,11 +10187,10 @@
         <v>1.469073444604874E-2</v>
       </c>
       <c r="D296">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E296">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10500,11 +10205,10 @@
         <v>1.419739797711372E-2</v>
       </c>
       <c r="D297">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E297">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10519,11 +10223,10 @@
         <v>1.4334253966808321E-2</v>
       </c>
       <c r="D298">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E298">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10538,11 +10241,10 @@
         <v>1.738247275352478E-2</v>
       </c>
       <c r="D299">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E299">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10557,11 +10259,10 @@
         <v>1.510093361139297E-2</v>
       </c>
       <c r="D300">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E300">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10576,11 +10277,10 @@
         <v>1.843597553670406E-2</v>
       </c>
       <c r="D301">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E301">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10595,11 +10295,10 @@
         <v>1.424963492900133E-2</v>
       </c>
       <c r="D302">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E302">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10614,11 +10313,10 @@
         <v>1.417722273617983E-2</v>
       </c>
       <c r="D303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E303">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10633,11 +10331,10 @@
         <v>1.8249176442623138E-2</v>
       </c>
       <c r="D304">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E304">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10652,11 +10349,10 @@
         <v>0.97184020280838013</v>
       </c>
       <c r="D305">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E305">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F305">
@@ -10674,11 +10370,10 @@
         <v>1.4364197850227359E-2</v>
       </c>
       <c r="D306">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E306">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10693,11 +10388,10 @@
         <v>3.33816297352314E-2</v>
       </c>
       <c r="D307">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E307">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10712,11 +10406,10 @@
         <v>1.4463157393038269E-2</v>
       </c>
       <c r="D308">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E308">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10731,11 +10424,10 @@
         <v>0.66297489404678345</v>
       </c>
       <c r="D309">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E309">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F309">
@@ -10753,11 +10445,10 @@
         <v>0.57793503999710083</v>
       </c>
       <c r="D310">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E310">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F310">
@@ -10775,11 +10466,10 @@
         <v>1.478860341012478E-2</v>
       </c>
       <c r="D311">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E311">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10794,11 +10484,10 @@
         <v>3.6964721977710717E-2</v>
       </c>
       <c r="D312">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E312">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10813,11 +10502,10 @@
         <v>1.4846148900687689E-2</v>
       </c>
       <c r="D313">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E313">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10832,11 +10520,10 @@
         <v>1.447752676904202E-2</v>
       </c>
       <c r="D314">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E314">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10851,11 +10538,10 @@
         <v>1.4386824332177641E-2</v>
       </c>
       <c r="D315">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E315">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10870,11 +10556,10 @@
         <v>1.431719306856394E-2</v>
       </c>
       <c r="D316">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E316">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10889,11 +10574,10 @@
         <v>1.419159956276417E-2</v>
       </c>
       <c r="D317">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E317">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10908,11 +10592,10 @@
         <v>1.6058113425970081E-2</v>
       </c>
       <c r="D318">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E318">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10927,11 +10610,10 @@
         <v>1.688872650265694E-2</v>
       </c>
       <c r="D319">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E319">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10946,11 +10628,10 @@
         <v>3.4688953310251243E-2</v>
       </c>
       <c r="D320">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E320">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10965,11 +10646,10 @@
         <v>1.547517254948616E-2</v>
       </c>
       <c r="D321">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E321">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10984,11 +10664,10 @@
         <v>3.4043554216623313E-2</v>
       </c>
       <c r="D322">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E322">
-        <f t="shared" ref="E322:E385" si="10">IF(ISBLANK(F322),D322,F322)</f>
         <v>0</v>
       </c>
     </row>
@@ -11003,11 +10682,10 @@
         <v>1.5600854530930521E-2</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="11">IF(C323&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D323:D386" si="5">IF(C323&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E323">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11022,11 +10700,10 @@
         <v>0.33083680272102362</v>
       </c>
       <c r="D324">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E324">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11041,11 +10718,10 @@
         <v>1.4608302153646949E-2</v>
       </c>
       <c r="D325">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E325">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11060,11 +10736,10 @@
         <v>0.33092594146728521</v>
       </c>
       <c r="D326">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E326">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11079,11 +10754,10 @@
         <v>2.64782290905714E-2</v>
       </c>
       <c r="D327">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E327">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11098,11 +10772,10 @@
         <v>1.423661131411791E-2</v>
       </c>
       <c r="D328">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E328">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11117,11 +10790,10 @@
         <v>1.459003519266844E-2</v>
       </c>
       <c r="D329">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E329">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11136,11 +10808,10 @@
         <v>1.4657579362392431E-2</v>
       </c>
       <c r="D330">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E330">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11155,11 +10826,10 @@
         <v>1.4502570964396E-2</v>
       </c>
       <c r="D331">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E331">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11174,11 +10844,10 @@
         <v>1.7134401947259899E-2</v>
       </c>
       <c r="D332">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E332">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11193,11 +10862,10 @@
         <v>1.816176995635033E-2</v>
       </c>
       <c r="D333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E333">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11212,11 +10880,10 @@
         <v>1.5056001953780649E-2</v>
       </c>
       <c r="D334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E334">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11231,11 +10898,10 @@
         <v>1.4336215332150459E-2</v>
       </c>
       <c r="D335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E335">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11250,11 +10916,10 @@
         <v>4.3315432965755463E-2</v>
       </c>
       <c r="D336">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E336">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11269,11 +10934,10 @@
         <v>1.4485304243862631E-2</v>
       </c>
       <c r="D337">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E337">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11288,11 +10952,10 @@
         <v>1.833743043243885E-2</v>
       </c>
       <c r="D338">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E338">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11307,11 +10970,10 @@
         <v>1.418562419712543E-2</v>
       </c>
       <c r="D339">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E339">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11326,11 +10988,10 @@
         <v>1.4487314037978649E-2</v>
       </c>
       <c r="D340">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E340">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11345,11 +11006,10 @@
         <v>1.999189704656601E-2</v>
       </c>
       <c r="D341">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E341">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11364,11 +11024,10 @@
         <v>0.99030286073684692</v>
       </c>
       <c r="D342">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E342">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F342">
@@ -11386,11 +11045,10 @@
         <v>3.0334353446960449E-2</v>
       </c>
       <c r="D343">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E343">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11405,11 +11063,10 @@
         <v>2.0865274593234059E-2</v>
       </c>
       <c r="D344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E344">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11424,11 +11081,10 @@
         <v>1.426031440496445E-2</v>
       </c>
       <c r="D345">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E345">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11443,11 +11099,10 @@
         <v>1.4264959841966631E-2</v>
       </c>
       <c r="D346">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E346">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11462,11 +11117,10 @@
         <v>1.4499061740934851E-2</v>
       </c>
       <c r="D347">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E347">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11481,11 +11135,10 @@
         <v>1.54498228803277E-2</v>
       </c>
       <c r="D348">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E348">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11500,11 +11153,10 @@
         <v>1.4228972606360911E-2</v>
       </c>
       <c r="D349">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E349">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11519,11 +11171,10 @@
         <v>1.4173224568366999E-2</v>
       </c>
       <c r="D350">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E350">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11538,11 +11189,10 @@
         <v>1.4450813643634319E-2</v>
       </c>
       <c r="D351">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E351">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11557,11 +11207,10 @@
         <v>1.513634342700243E-2</v>
       </c>
       <c r="D352">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E352">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11576,11 +11225,10 @@
         <v>1.433853898197412E-2</v>
       </c>
       <c r="D353">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E353">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11595,11 +11243,10 @@
         <v>4.4139772653579712E-2</v>
       </c>
       <c r="D354">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E354">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11614,11 +11261,10 @@
         <v>1.4204259961843491E-2</v>
       </c>
       <c r="D355">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E355">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11633,11 +11279,10 @@
         <v>1.428178697824478E-2</v>
       </c>
       <c r="D356">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E356">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11652,11 +11297,10 @@
         <v>2.9819300398230549E-2</v>
       </c>
       <c r="D357">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E357">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11671,11 +11315,10 @@
         <v>1.4224164187908169E-2</v>
       </c>
       <c r="D358">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E358">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11690,11 +11333,10 @@
         <v>3.4347940236330032E-2</v>
       </c>
       <c r="D359">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E359">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11709,11 +11351,10 @@
         <v>1.4365616254508501E-2</v>
       </c>
       <c r="D360">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E360">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11728,11 +11369,10 @@
         <v>0.33101922273635859</v>
       </c>
       <c r="D361">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E361">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11747,11 +11387,10 @@
         <v>3.1723618507385247E-2</v>
       </c>
       <c r="D362">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E362">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11766,11 +11405,10 @@
         <v>0.94005781412124634</v>
       </c>
       <c r="D363">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E363">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F363">
@@ -11788,11 +11426,10 @@
         <v>2.1693689748644829E-2</v>
       </c>
       <c r="D364">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E364">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11807,11 +11444,10 @@
         <v>1.459517236799002E-2</v>
       </c>
       <c r="D365">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E365">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11826,11 +11462,10 @@
         <v>1.4837083406746389E-2</v>
       </c>
       <c r="D366">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E366">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11845,11 +11480,10 @@
         <v>1.5351214446127409E-2</v>
       </c>
       <c r="D367">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E367">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11864,11 +11498,10 @@
         <v>1.4691486954689029E-2</v>
       </c>
       <c r="D368">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E368">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11883,11 +11516,10 @@
         <v>0.11519093811511991</v>
       </c>
       <c r="D369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E369">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11902,11 +11534,10 @@
         <v>2.3172711953520771E-2</v>
       </c>
       <c r="D370">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E370">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11921,11 +11552,10 @@
         <v>1.427018456161022E-2</v>
       </c>
       <c r="D371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E371">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11940,11 +11570,10 @@
         <v>1.524288021028042E-2</v>
       </c>
       <c r="D372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E372">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11959,11 +11588,10 @@
         <v>1.429673749953508E-2</v>
       </c>
       <c r="D373">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E373">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11978,11 +11606,10 @@
         <v>1.551030110567808E-2</v>
       </c>
       <c r="D374">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E374">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11997,11 +11624,10 @@
         <v>1.470304653048515E-2</v>
       </c>
       <c r="D375">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E375">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12016,11 +11642,10 @@
         <v>0.97448992729187012</v>
       </c>
       <c r="D376">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E376">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F376">
@@ -12038,11 +11663,10 @@
         <v>1.4344559051096439E-2</v>
       </c>
       <c r="D377">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E377">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12057,11 +11681,10 @@
         <v>2.3445650935173031E-2</v>
       </c>
       <c r="D378">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E378">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12076,11 +11699,10 @@
         <v>1.4835537411272529E-2</v>
       </c>
       <c r="D379">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E379">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12095,11 +11717,10 @@
         <v>1.536302547901869E-2</v>
       </c>
       <c r="D380">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E380">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12114,11 +11735,10 @@
         <v>1.433463115245104E-2</v>
       </c>
       <c r="D381">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E381">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12133,11 +11753,10 @@
         <v>1.433467213064432E-2</v>
       </c>
       <c r="D382">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E382">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12152,11 +11771,10 @@
         <v>1.4231179840862749E-2</v>
       </c>
       <c r="D383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E383">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12171,11 +11789,10 @@
         <v>3.1207604333758351E-2</v>
       </c>
       <c r="D384">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E384">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12190,11 +11807,10 @@
         <v>1.433176174759865E-2</v>
       </c>
       <c r="D385">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E385">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12209,11 +11825,10 @@
         <v>1.4312476851046091E-2</v>
       </c>
       <c r="D386">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E386">
-        <f t="shared" ref="E386:E449" si="12">IF(ISBLANK(F386),D386,F386)</f>
         <v>0</v>
       </c>
     </row>
@@ -12228,11 +11843,10 @@
         <v>1.439282950013876E-2</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="13">IF(C387&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D387:D450" si="6">IF(C387&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E387">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12247,11 +11861,10 @@
         <v>4.4526539742946618E-2</v>
       </c>
       <c r="D388">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E388">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12266,11 +11879,10 @@
         <v>1.4167150482535361E-2</v>
       </c>
       <c r="D389">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E389">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12285,11 +11897,10 @@
         <v>1.4405728317797181E-2</v>
       </c>
       <c r="D390">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E390">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12304,11 +11915,10 @@
         <v>1.449771970510483E-2</v>
       </c>
       <c r="D391">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E391">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12323,11 +11933,10 @@
         <v>1.419202610850334E-2</v>
       </c>
       <c r="D392">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E392">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12342,11 +11951,10 @@
         <v>1.415781583636999E-2</v>
       </c>
       <c r="D393">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E393">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12361,11 +11969,10 @@
         <v>1.414748467504978E-2</v>
       </c>
       <c r="D394">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E394">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12380,11 +11987,10 @@
         <v>1.4267368242144579E-2</v>
       </c>
       <c r="D395">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E395">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12399,11 +12005,10 @@
         <v>1.4215114526450631E-2</v>
       </c>
       <c r="D396">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E396">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12418,11 +12023,10 @@
         <v>4.9143701791763313E-2</v>
       </c>
       <c r="D397">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E397">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12437,11 +12041,10 @@
         <v>1.660713367164135E-2</v>
       </c>
       <c r="D398">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E398">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12456,11 +12059,10 @@
         <v>1.45532600581646E-2</v>
       </c>
       <c r="D399">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E399">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12475,11 +12077,10 @@
         <v>1.9234353676438332E-2</v>
       </c>
       <c r="D400">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E400">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12494,11 +12095,10 @@
         <v>1.5268282033503061E-2</v>
       </c>
       <c r="D401">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E401">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12513,11 +12113,10 @@
         <v>1.463837083429098E-2</v>
       </c>
       <c r="D402">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E402">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12532,11 +12131,10 @@
         <v>1.4353630132973191E-2</v>
       </c>
       <c r="D403">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E403">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12551,11 +12149,10 @@
         <v>1.6702517867088321E-2</v>
       </c>
       <c r="D404">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E404">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12570,11 +12167,10 @@
         <v>1.748385094106197E-2</v>
       </c>
       <c r="D405">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E405">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12589,11 +12185,10 @@
         <v>2.0431879907846451E-2</v>
       </c>
       <c r="D406">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E406">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12608,11 +12203,10 @@
         <v>1.44637618213892E-2</v>
       </c>
       <c r="D407">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E407">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12627,11 +12221,10 @@
         <v>1.424846798181534E-2</v>
       </c>
       <c r="D408">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E408">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12646,11 +12239,10 @@
         <v>1.502614188939333E-2</v>
       </c>
       <c r="D409">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E409">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12665,11 +12257,10 @@
         <v>1.4498039148747919E-2</v>
       </c>
       <c r="D410">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E410">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12684,11 +12275,10 @@
         <v>6.5856568515300751E-2</v>
       </c>
       <c r="D411">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E411">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12703,11 +12293,10 @@
         <v>1.7302552238106731E-2</v>
       </c>
       <c r="D412">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E412">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12722,11 +12311,10 @@
         <v>1.484372094273567E-2</v>
       </c>
       <c r="D413">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E413">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12741,11 +12329,10 @@
         <v>0.88708066940307617</v>
       </c>
       <c r="D414">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E414">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12760,11 +12347,10 @@
         <v>0.99053579568862915</v>
       </c>
       <c r="D415">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E415">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12779,11 +12365,10 @@
         <v>1.5748133882880211E-2</v>
       </c>
       <c r="D416">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E416">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12798,11 +12383,10 @@
         <v>2.5975042954087261E-2</v>
       </c>
       <c r="D417">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E417">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12817,11 +12401,10 @@
         <v>1.4213778078556061E-2</v>
       </c>
       <c r="D418">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E418">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12836,11 +12419,10 @@
         <v>1.435736194252968E-2</v>
       </c>
       <c r="D419">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E419">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12855,11 +12437,10 @@
         <v>0.84144318103790283</v>
       </c>
       <c r="D420">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E420">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12874,11 +12455,10 @@
         <v>2.5475123897194859E-2</v>
       </c>
       <c r="D421">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E421">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12893,11 +12473,10 @@
         <v>4.3358124792575843E-2</v>
       </c>
       <c r="D422">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E422">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12912,11 +12491,10 @@
         <v>0.9700208306312561</v>
       </c>
       <c r="D423">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E423">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12931,11 +12509,10 @@
         <v>0.99061208963394165</v>
       </c>
       <c r="D424">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E424">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12950,11 +12527,10 @@
         <v>1.6028439626097679E-2</v>
       </c>
       <c r="D425">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E425">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12969,11 +12545,10 @@
         <v>2.0678684115409851E-2</v>
       </c>
       <c r="D426">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E426">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12988,11 +12563,10 @@
         <v>0.9906001091003418</v>
       </c>
       <c r="D427">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E427">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F427">
@@ -13010,11 +12584,10 @@
         <v>1.42496544867754E-2</v>
       </c>
       <c r="D428">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E428">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13029,11 +12602,10 @@
         <v>1.5748074278235439E-2</v>
       </c>
       <c r="D429">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E429">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13048,11 +12620,10 @@
         <v>0.64978313446044922</v>
       </c>
       <c r="D430">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E430">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -13067,11 +12638,10 @@
         <v>6.0017559677362442E-2</v>
       </c>
       <c r="D431">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E431">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13086,11 +12656,10 @@
         <v>1.9488595426082611E-2</v>
       </c>
       <c r="D432">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E432">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13105,11 +12674,10 @@
         <v>1.5439736656844619E-2</v>
       </c>
       <c r="D433">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E433">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13124,11 +12692,10 @@
         <v>2.2816592827439312E-2</v>
       </c>
       <c r="D434">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E434">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13143,11 +12710,10 @@
         <v>0.99046725034713745</v>
       </c>
       <c r="D435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E435">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F435">
@@ -13165,11 +12731,10 @@
         <v>1.5154046006500719E-2</v>
       </c>
       <c r="D436">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E436">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13184,11 +12749,10 @@
         <v>0.33809113502502441</v>
       </c>
       <c r="D437">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E437">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13203,11 +12767,10 @@
         <v>1.708176173269749E-2</v>
       </c>
       <c r="D438">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E438">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13222,11 +12785,10 @@
         <v>1.4347006566822531E-2</v>
       </c>
       <c r="D439">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E439">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13241,11 +12803,10 @@
         <v>1.6468128189444538E-2</v>
       </c>
       <c r="D440">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E440">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13260,11 +12821,10 @@
         <v>1.463587488979101E-2</v>
       </c>
       <c r="D441">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E441">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13279,11 +12839,10 @@
         <v>1.6889898106455799E-2</v>
       </c>
       <c r="D442">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E442">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13298,11 +12857,10 @@
         <v>3.7814188748598099E-2</v>
       </c>
       <c r="D443">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E443">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13317,11 +12875,10 @@
         <v>4.8936367034912109E-2</v>
       </c>
       <c r="D444">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E444">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13336,11 +12893,10 @@
         <v>3.3694073557853699E-2</v>
       </c>
       <c r="D445">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E445">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13355,11 +12911,10 @@
         <v>1.511337887495756E-2</v>
       </c>
       <c r="D446">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E446">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13374,11 +12929,10 @@
         <v>1.423647906631231E-2</v>
       </c>
       <c r="D447">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E447">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13393,11 +12947,10 @@
         <v>1.4683862216770651E-2</v>
       </c>
       <c r="D448">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E448">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13412,11 +12965,10 @@
         <v>1.463642343878746E-2</v>
       </c>
       <c r="D449">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E449">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13431,11 +12983,10 @@
         <v>1.930378936231136E-2</v>
       </c>
       <c r="D450">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E450">
-        <f t="shared" ref="E450:E513" si="14">IF(ISBLANK(F450),D450,F450)</f>
         <v>0</v>
       </c>
     </row>
@@ -13450,11 +13001,10 @@
         <v>1.5379299409687521E-2</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D514" si="15">IF(C451&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D451:D514" si="7">IF(C451&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E451">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13469,11 +13019,10 @@
         <v>1.473125815391541E-2</v>
       </c>
       <c r="D452">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E452">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13488,11 +13037,10 @@
         <v>0.33108511567115778</v>
       </c>
       <c r="D453">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E453">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13507,11 +13055,10 @@
         <v>0.99065196514129639</v>
       </c>
       <c r="D454">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E454">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13526,11 +13073,10 @@
         <v>1.527222618460655E-2</v>
       </c>
       <c r="D455">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E455">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13545,11 +13091,10 @@
         <v>1.436107233166695E-2</v>
       </c>
       <c r="D456">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E456">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13564,11 +13109,10 @@
         <v>6.3729390501976013E-2</v>
       </c>
       <c r="D457">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E457">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13583,11 +13127,10 @@
         <v>1.50660676881671E-2</v>
       </c>
       <c r="D458">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E458">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13602,11 +13145,10 @@
         <v>1.4430800452828411E-2</v>
       </c>
       <c r="D459">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E459">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13621,11 +13163,10 @@
         <v>1.4559074304997919E-2</v>
       </c>
       <c r="D460">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E460">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13640,11 +13181,10 @@
         <v>1.453050505369902E-2</v>
       </c>
       <c r="D461">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E461">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13659,11 +13199,10 @@
         <v>1.6696630045771599E-2</v>
       </c>
       <c r="D462">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E462">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13678,11 +13217,10 @@
         <v>0.80568486452102661</v>
       </c>
       <c r="D463">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E463">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F463">
@@ -13700,11 +13238,10 @@
         <v>2.388354949653149E-2</v>
       </c>
       <c r="D464">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E464">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13719,11 +13256,10 @@
         <v>1.5514262951910499E-2</v>
       </c>
       <c r="D465">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E465">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13738,11 +13274,10 @@
         <v>1.4456974342465401E-2</v>
       </c>
       <c r="D466">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E466">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13757,11 +13292,10 @@
         <v>1.4155168086290359E-2</v>
       </c>
       <c r="D467">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E467">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13776,11 +13310,10 @@
         <v>2.8513524681329731E-2</v>
       </c>
       <c r="D468">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E468">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13795,11 +13328,10 @@
         <v>1.506632193922997E-2</v>
       </c>
       <c r="D469">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E469">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13814,11 +13346,10 @@
         <v>1.434029173105955E-2</v>
       </c>
       <c r="D470">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E470">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13833,11 +13364,10 @@
         <v>1.452481187880039E-2</v>
       </c>
       <c r="D471">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E471">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13852,11 +13382,10 @@
         <v>1.744441315531731E-2</v>
       </c>
       <c r="D472">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E472">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13871,11 +13400,10 @@
         <v>2.313464879989624E-2</v>
       </c>
       <c r="D473">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E473">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13890,11 +13418,10 @@
         <v>1.4215622097253799E-2</v>
       </c>
       <c r="D474">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E474">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13909,11 +13436,10 @@
         <v>0.74301320314407349</v>
       </c>
       <c r="D475">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E475">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F475">
@@ -13931,11 +13457,10 @@
         <v>1.4224378392100331E-2</v>
       </c>
       <c r="D476">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E476">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13950,11 +13475,10 @@
         <v>1.5873299911618229E-2</v>
       </c>
       <c r="D477">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E477">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13969,11 +13493,10 @@
         <v>1.5400737524032589E-2</v>
       </c>
       <c r="D478">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E478">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13988,11 +13511,10 @@
         <v>1.430212054401636E-2</v>
       </c>
       <c r="D479">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E479">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14007,11 +13529,10 @@
         <v>1.452701725065708E-2</v>
       </c>
       <c r="D480">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E480">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14026,11 +13547,10 @@
         <v>3.3784464001655579E-2</v>
       </c>
       <c r="D481">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E481">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14045,11 +13565,10 @@
         <v>1.5877136960625648E-2</v>
       </c>
       <c r="D482">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E482">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14064,11 +13583,10 @@
         <v>1.458013989031315E-2</v>
       </c>
       <c r="D483">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E483">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14083,11 +13601,10 @@
         <v>1.8214678391814228E-2</v>
       </c>
       <c r="D484">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E484">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14102,11 +13619,10 @@
         <v>1.430893782526255E-2</v>
       </c>
       <c r="D485">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E485">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14121,11 +13637,10 @@
         <v>0.33110448718070978</v>
       </c>
       <c r="D486">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E486">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14140,11 +13655,10 @@
         <v>1.461968850344419E-2</v>
       </c>
       <c r="D487">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E487">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14159,11 +13673,10 @@
         <v>0.58579015731811523</v>
       </c>
       <c r="D488">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E488">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F488">
@@ -14181,11 +13694,10 @@
         <v>3.0815999954938889E-2</v>
       </c>
       <c r="D489">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E489">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14200,11 +13712,10 @@
         <v>1.4412689954042429E-2</v>
       </c>
       <c r="D490">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E490">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14219,11 +13730,10 @@
         <v>1.4502209611237051E-2</v>
       </c>
       <c r="D491">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E491">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14238,11 +13748,10 @@
         <v>1.426934543997049E-2</v>
       </c>
       <c r="D492">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E492">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14257,11 +13766,10 @@
         <v>0.14495100080966949</v>
       </c>
       <c r="D493">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E493">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14276,11 +13784,10 @@
         <v>2.2913917899131771E-2</v>
       </c>
       <c r="D494">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E494">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14295,11 +13802,10 @@
         <v>1.9709853455424309E-2</v>
       </c>
       <c r="D495">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E495">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14314,11 +13820,10 @@
         <v>4.0122289210557938E-2</v>
       </c>
       <c r="D496">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E496">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14333,11 +13838,10 @@
         <v>1.548371836543083E-2</v>
       </c>
       <c r="D497">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E497">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14352,11 +13856,10 @@
         <v>1.5873285010457039E-2</v>
       </c>
       <c r="D498">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E498">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14371,11 +13874,10 @@
         <v>1.50707671418786E-2</v>
       </c>
       <c r="D499">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E499">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14390,11 +13892,10 @@
         <v>0.95769113302230835</v>
       </c>
       <c r="D500">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E500">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F500">
@@ -14412,11 +13913,10 @@
         <v>1.431577932089567E-2</v>
       </c>
       <c r="D501">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E501">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14431,11 +13931,10 @@
         <v>1.4874693006277079E-2</v>
       </c>
       <c r="D502">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E502">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14450,11 +13949,10 @@
         <v>1.6567550599575039E-2</v>
       </c>
       <c r="D503">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E503">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14469,11 +13967,10 @@
         <v>1.4351268298923969E-2</v>
       </c>
       <c r="D504">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E504">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14488,11 +13985,10 @@
         <v>1.4282383024692541E-2</v>
       </c>
       <c r="D505">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E505">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14507,11 +14003,10 @@
         <v>1.4662386849522591E-2</v>
       </c>
       <c r="D506">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E506">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14526,11 +14021,10 @@
         <v>1.7284836620092388E-2</v>
       </c>
       <c r="D507">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E507">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14545,11 +14039,10 @@
         <v>3.3267315477132797E-2</v>
       </c>
       <c r="D508">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E508">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14564,11 +14057,10 @@
         <v>1.6580445691943169E-2</v>
       </c>
       <c r="D509">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E509">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14583,11 +14075,10 @@
         <v>1.535274274647236E-2</v>
       </c>
       <c r="D510">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E510">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14602,11 +14093,10 @@
         <v>1.8426904454827309E-2</v>
       </c>
       <c r="D511">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E511">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14621,11 +14111,10 @@
         <v>1.449207216501236E-2</v>
       </c>
       <c r="D512">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E512">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14640,11 +14129,10 @@
         <v>0.99027097225189209</v>
       </c>
       <c r="D513">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E513">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F513">
@@ -14662,11 +14150,10 @@
         <v>1.488647796213627E-2</v>
       </c>
       <c r="D514">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E514">
-        <f t="shared" ref="E514:E577" si="16">IF(ISBLANK(F514),D514,F514)</f>
         <v>0</v>
       </c>
     </row>
@@ -14681,11 +14168,10 @@
         <v>1.5959518030285839E-2</v>
       </c>
       <c r="D515">
-        <f t="shared" ref="D515:D578" si="17">IF(C515&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D515:D578" si="8">IF(C515&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E515">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14700,11 +14186,10 @@
         <v>1.4227272942662241E-2</v>
       </c>
       <c r="D516">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E516">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14719,11 +14204,10 @@
         <v>0.93008881807327271</v>
       </c>
       <c r="D517">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E517">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F517">
@@ -14741,11 +14225,10 @@
         <v>1.41754187643528E-2</v>
       </c>
       <c r="D518">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E518">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14760,11 +14243,10 @@
         <v>1.480547338724136E-2</v>
       </c>
       <c r="D519">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E519">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14779,11 +14261,10 @@
         <v>1.4195608906447889E-2</v>
       </c>
       <c r="D520">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E520">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14798,11 +14279,10 @@
         <v>1.423421688377857E-2</v>
       </c>
       <c r="D521">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E521">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14817,11 +14297,10 @@
         <v>3.4691460430622101E-2</v>
       </c>
       <c r="D522">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E522">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14836,11 +14315,10 @@
         <v>0.99061882495880127</v>
       </c>
       <c r="D523">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E523">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F523">
@@ -14858,11 +14336,10 @@
         <v>1.4427741058170801E-2</v>
       </c>
       <c r="D524">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E524">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14877,11 +14354,10 @@
         <v>1.4858776703476909E-2</v>
       </c>
       <c r="D525">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E525">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14896,11 +14372,10 @@
         <v>1.4364961534738541E-2</v>
       </c>
       <c r="D526">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E526">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14915,11 +14390,10 @@
         <v>1.4439361169934269E-2</v>
       </c>
       <c r="D527">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E527">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14934,11 +14408,10 @@
         <v>1.5642356127500531E-2</v>
       </c>
       <c r="D528">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E528">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14953,11 +14426,10 @@
         <v>0.33101138472557068</v>
       </c>
       <c r="D529">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E529">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14972,11 +14444,10 @@
         <v>1.4288432896137239E-2</v>
       </c>
       <c r="D530">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E530">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14991,11 +14462,10 @@
         <v>4.4280353933572769E-2</v>
       </c>
       <c r="D531">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E531">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15010,11 +14480,10 @@
         <v>1.4269432052969931E-2</v>
       </c>
       <c r="D532">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E532">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15029,11 +14498,10 @@
         <v>1.417132653295994E-2</v>
       </c>
       <c r="D533">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E533">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15048,11 +14516,10 @@
         <v>1.438605412840843E-2</v>
       </c>
       <c r="D534">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E534">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15067,11 +14534,10 @@
         <v>1.417458429932594E-2</v>
       </c>
       <c r="D535">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E535">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15086,11 +14552,10 @@
         <v>1.4197812415659429E-2</v>
       </c>
       <c r="D536">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E536">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15105,11 +14570,10 @@
         <v>1.467040181159973E-2</v>
       </c>
       <c r="D537">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E537">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15124,11 +14588,10 @@
         <v>0.97650790214538574</v>
       </c>
       <c r="D538">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E538">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F538">
@@ -15146,11 +14609,10 @@
         <v>1.425452344119549E-2</v>
       </c>
       <c r="D539">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E539">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15165,11 +14627,10 @@
         <v>1.6165699809789661E-2</v>
       </c>
       <c r="D540">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E540">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15184,11 +14645,10 @@
         <v>1.420081499963999E-2</v>
       </c>
       <c r="D541">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E541">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15203,11 +14663,10 @@
         <v>0.15294413268566129</v>
       </c>
       <c r="D542">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E542">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15222,11 +14681,10 @@
         <v>0.3310905396938324</v>
       </c>
       <c r="D543">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E543">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15241,11 +14699,10 @@
         <v>2.1827289834618568E-2</v>
       </c>
       <c r="D544">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E544">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15260,11 +14717,10 @@
         <v>1.4200928620994089E-2</v>
       </c>
       <c r="D545">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E545">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15279,11 +14735,10 @@
         <v>1.456316560506821E-2</v>
       </c>
       <c r="D546">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E546">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15298,11 +14753,10 @@
         <v>1.477936562150717E-2</v>
       </c>
       <c r="D547">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E547">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15317,11 +14771,10 @@
         <v>1.417937595397234E-2</v>
       </c>
       <c r="D548">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E548">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15336,11 +14789,10 @@
         <v>1.4363846741616729E-2</v>
       </c>
       <c r="D549">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E549">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15355,11 +14807,10 @@
         <v>2.160835079848766E-2</v>
       </c>
       <c r="D550">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E550">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15374,11 +14825,10 @@
         <v>9.06948521733284E-2</v>
       </c>
       <c r="D551">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E551">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15393,11 +14843,10 @@
         <v>1.426046807318926E-2</v>
       </c>
       <c r="D552">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E552">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15412,11 +14861,10 @@
         <v>0.16683335602283481</v>
       </c>
       <c r="D553">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E553">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15431,11 +14879,10 @@
         <v>1.79029181599617E-2</v>
       </c>
       <c r="D554">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E554">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15450,11 +14897,10 @@
         <v>1.418444979935884E-2</v>
       </c>
       <c r="D555">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E555">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15469,11 +14915,10 @@
         <v>1.4195568859577181E-2</v>
       </c>
       <c r="D556">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E556">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15488,11 +14933,10 @@
         <v>2.3530276492238041E-2</v>
       </c>
       <c r="D557">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E557">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15507,11 +14951,10 @@
         <v>1.422682590782642E-2</v>
       </c>
       <c r="D558">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E558">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15526,11 +14969,10 @@
         <v>2.291210368275642E-2</v>
       </c>
       <c r="D559">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E559">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15545,11 +14987,10 @@
         <v>1.426825951784849E-2</v>
       </c>
       <c r="D560">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E560">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15564,11 +15005,10 @@
         <v>1.4256211929023269E-2</v>
       </c>
       <c r="D561">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E561">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15583,11 +15023,10 @@
         <v>1.4209902845323089E-2</v>
       </c>
       <c r="D562">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E562">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15602,11 +15041,10 @@
         <v>2.2293152287602421E-2</v>
       </c>
       <c r="D563">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E563">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15621,11 +15059,10 @@
         <v>1.4544776640832421E-2</v>
       </c>
       <c r="D564">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E564">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15640,11 +15077,10 @@
         <v>0.98857051134109497</v>
       </c>
       <c r="D565">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E565">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15659,11 +15095,10 @@
         <v>1.487667020410299E-2</v>
       </c>
       <c r="D566">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E566">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15678,11 +15113,10 @@
         <v>1.418078318238258E-2</v>
       </c>
       <c r="D567">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E567">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15697,11 +15131,10 @@
         <v>2.962175756692886E-2</v>
       </c>
       <c r="D568">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E568">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15716,11 +15149,10 @@
         <v>1.462583709508181E-2</v>
       </c>
       <c r="D569">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E569">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15735,11 +15167,10 @@
         <v>1.4346400275826451E-2</v>
       </c>
       <c r="D570">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E570">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15754,11 +15185,10 @@
         <v>1.461086422204971E-2</v>
       </c>
       <c r="D571">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E571">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15773,11 +15203,10 @@
         <v>1.429380010813475E-2</v>
       </c>
       <c r="D572">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E572">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15792,11 +15221,10 @@
         <v>0.99060517549514771</v>
       </c>
       <c r="D573">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E573">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F573">
@@ -15814,11 +15242,10 @@
         <v>7.6341286301612854E-2</v>
       </c>
       <c r="D574">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E574">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15833,11 +15260,10 @@
         <v>1.429584994912148E-2</v>
       </c>
       <c r="D575">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E575">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15852,11 +15278,10 @@
         <v>1.8537778407335281E-2</v>
       </c>
       <c r="D576">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E576">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15871,11 +15296,10 @@
         <v>1.434503775089979E-2</v>
       </c>
       <c r="D577">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E577">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15890,11 +15314,10 @@
         <v>1.6233921051025391E-2</v>
       </c>
       <c r="D578">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E578">
-        <f t="shared" ref="E578:E641" si="18">IF(ISBLANK(F578),D578,F578)</f>
         <v>0</v>
       </c>
     </row>
@@ -15909,11 +15332,10 @@
         <v>2.135434374213219E-2</v>
       </c>
       <c r="D579">
-        <f t="shared" ref="D579:D642" si="19">IF(C579&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D579:D642" si="9">IF(C579&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E579">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15928,11 +15350,10 @@
         <v>1.566037721931934E-2</v>
       </c>
       <c r="D580">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E580">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15947,11 +15368,10 @@
         <v>1.4319944195449351E-2</v>
       </c>
       <c r="D581">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E581">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15966,11 +15386,10 @@
         <v>1.5924688428640369E-2</v>
       </c>
       <c r="D582">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E582">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15985,11 +15404,10 @@
         <v>1.4608508907258511E-2</v>
       </c>
       <c r="D583">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E583">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16004,11 +15422,10 @@
         <v>2.8538333252072331E-2</v>
       </c>
       <c r="D584">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E584">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16023,11 +15440,10 @@
         <v>3.4970939159393311E-2</v>
       </c>
       <c r="D585">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E585">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16042,11 +15458,10 @@
         <v>1.4216102659702299E-2</v>
       </c>
       <c r="D586">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E586">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16061,11 +15476,10 @@
         <v>4.1314538568258292E-2</v>
       </c>
       <c r="D587">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E587">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16080,11 +15494,10 @@
         <v>6.5339952707290649E-2</v>
       </c>
       <c r="D588">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E588">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16099,11 +15512,10 @@
         <v>6.5812066197395325E-2</v>
       </c>
       <c r="D589">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E589">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16118,11 +15530,10 @@
         <v>1.423022989183664E-2</v>
       </c>
       <c r="D590">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E590">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16137,11 +15548,10 @@
         <v>3.6699764430522919E-2</v>
       </c>
       <c r="D591">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E591">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16156,11 +15566,10 @@
         <v>1.93608682602644E-2</v>
       </c>
       <c r="D592">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E592">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16175,11 +15584,10 @@
         <v>1.468704920262098E-2</v>
       </c>
       <c r="D593">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E593">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16194,11 +15602,10 @@
         <v>1.467372383922338E-2</v>
       </c>
       <c r="D594">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E594">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16213,11 +15620,10 @@
         <v>1.418557576835155E-2</v>
       </c>
       <c r="D595">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E595">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16232,11 +15638,10 @@
         <v>0.99050712585449219</v>
       </c>
       <c r="D596">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E596">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16251,11 +15656,10 @@
         <v>2.3800089955329898E-2</v>
       </c>
       <c r="D597">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E597">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16270,11 +15674,10 @@
         <v>0.98975569009780884</v>
       </c>
       <c r="D598">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E598">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16289,11 +15692,10 @@
         <v>1.473582535982132E-2</v>
       </c>
       <c r="D599">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E599">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16308,11 +15710,10 @@
         <v>0.89659613370895386</v>
       </c>
       <c r="D600">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E600">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F600">
@@ -16330,11 +15731,10 @@
         <v>1.492464262992144E-2</v>
       </c>
       <c r="D601">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E601">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16349,11 +15749,10 @@
         <v>1.8548887223005291E-2</v>
       </c>
       <c r="D602">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E602">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16368,11 +15767,10 @@
         <v>1.53498537838459E-2</v>
       </c>
       <c r="D603">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E603">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16387,11 +15785,10 @@
         <v>0.99051100015640259</v>
       </c>
       <c r="D604">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E604">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F604">
@@ -16409,11 +15806,10 @@
         <v>2.1029496565461159E-2</v>
       </c>
       <c r="D605">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E605">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16428,11 +15824,10 @@
         <v>3.9205979555845261E-2</v>
       </c>
       <c r="D606">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E606">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16447,11 +15842,10 @@
         <v>2.243520691990852E-2</v>
       </c>
       <c r="D607">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E607">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16466,11 +15860,10 @@
         <v>1.4356281608343119E-2</v>
       </c>
       <c r="D608">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E608">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16485,11 +15878,10 @@
         <v>0.93563127517700195</v>
       </c>
       <c r="D609">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E609">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F609">
@@ -16507,11 +15899,10 @@
         <v>1.454705931246281E-2</v>
       </c>
       <c r="D610">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E610">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16526,11 +15917,10 @@
         <v>3.2348942011594772E-2</v>
       </c>
       <c r="D611">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E611">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16545,11 +15935,10 @@
         <v>3.2356139272451401E-2</v>
       </c>
       <c r="D612">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E612">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16564,11 +15953,10 @@
         <v>1.451435871422291E-2</v>
       </c>
       <c r="D613">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E613">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16583,11 +15971,10 @@
         <v>0.99021965265274048</v>
       </c>
       <c r="D614">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E614">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F614">
@@ -16605,11 +15992,10 @@
         <v>5.1964975893497467E-2</v>
       </c>
       <c r="D615">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E615">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16624,11 +16010,10 @@
         <v>1.45645746961236E-2</v>
       </c>
       <c r="D616">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E616">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16643,11 +16028,10 @@
         <v>1.435022987425327E-2</v>
       </c>
       <c r="D617">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E617">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16662,11 +16046,10 @@
         <v>0.82098132371902466</v>
       </c>
       <c r="D618">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E618">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F618">
@@ -16684,11 +16067,10 @@
         <v>1.437166053801775E-2</v>
       </c>
       <c r="D619">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E619">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16703,11 +16085,10 @@
         <v>1.43564697355032E-2</v>
       </c>
       <c r="D620">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E620">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16722,11 +16103,10 @@
         <v>1.6039455309510231E-2</v>
       </c>
       <c r="D621">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E621">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16741,11 +16121,10 @@
         <v>1.4377673156559471E-2</v>
       </c>
       <c r="D622">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E622">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16760,11 +16139,10 @@
         <v>1.461994275450706E-2</v>
       </c>
       <c r="D623">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E623">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16779,11 +16157,10 @@
         <v>5.3714506328105933E-2</v>
       </c>
       <c r="D624">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E624">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16798,11 +16175,10 @@
         <v>1.6805978491902351E-2</v>
       </c>
       <c r="D625">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E625">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16817,11 +16193,10 @@
         <v>0.98413658142089844</v>
       </c>
       <c r="D626">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E626">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16836,11 +16211,10 @@
         <v>1.439653057605028E-2</v>
       </c>
       <c r="D627">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E627">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16855,11 +16229,10 @@
         <v>1.4317024499177929E-2</v>
       </c>
       <c r="D628">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E628">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16874,11 +16247,10 @@
         <v>1.6437465324997898E-2</v>
       </c>
       <c r="D629">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E629">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16893,11 +16265,10 @@
         <v>1.479184161871672E-2</v>
       </c>
       <c r="D630">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E630">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16912,11 +16283,10 @@
         <v>1.4551146887242791E-2</v>
       </c>
       <c r="D631">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E631">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16931,11 +16301,10 @@
         <v>1.493460033088923E-2</v>
       </c>
       <c r="D632">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E632">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16950,11 +16319,10 @@
         <v>1.455061975866556E-2</v>
       </c>
       <c r="D633">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E633">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16969,11 +16337,10 @@
         <v>3.5151977092027657E-2</v>
       </c>
       <c r="D634">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E634">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16988,11 +16355,10 @@
         <v>1.419111341238022E-2</v>
       </c>
       <c r="D635">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E635">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17007,11 +16373,10 @@
         <v>1.439912244677544E-2</v>
       </c>
       <c r="D636">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E636">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17026,11 +16391,10 @@
         <v>1.4241605065763E-2</v>
       </c>
       <c r="D637">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E637">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17045,11 +16409,10 @@
         <v>1.922926306724548E-2</v>
       </c>
       <c r="D638">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E638">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17064,11 +16427,10 @@
         <v>1.6244500875473019E-2</v>
       </c>
       <c r="D639">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E639">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17083,11 +16445,10 @@
         <v>1.4692294411361219E-2</v>
       </c>
       <c r="D640">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E640">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17102,11 +16463,10 @@
         <v>1.82654969394207E-2</v>
       </c>
       <c r="D641">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E641">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17121,11 +16481,10 @@
         <v>1.4329801313579081E-2</v>
       </c>
       <c r="D642">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E642">
-        <f t="shared" ref="E642:E705" si="20">IF(ISBLANK(F642),D642,F642)</f>
         <v>0</v>
       </c>
     </row>
@@ -17140,11 +16499,10 @@
         <v>1.445640344172716E-2</v>
       </c>
       <c r="D643">
-        <f t="shared" ref="D643:D706" si="21">IF(C643&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D643:D706" si="10">IF(C643&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E643">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17159,11 +16517,10 @@
         <v>1.4566997997462749E-2</v>
       </c>
       <c r="D644">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E644">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17178,11 +16535,10 @@
         <v>1.488205790519714E-2</v>
       </c>
       <c r="D645">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E645">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17197,11 +16553,10 @@
         <v>1.4633378013968469E-2</v>
       </c>
       <c r="D646">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E646">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17216,11 +16571,10 @@
         <v>1.427616830915213E-2</v>
       </c>
       <c r="D647">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E647">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17235,11 +16589,10 @@
         <v>0.92433744668960571</v>
       </c>
       <c r="D648">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E648">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F648">
@@ -17257,11 +16610,10 @@
         <v>1.418625004589558E-2</v>
       </c>
       <c r="D649">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E649">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17276,11 +16628,10 @@
         <v>1.425066497176886E-2</v>
       </c>
       <c r="D650">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E650">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17295,11 +16646,10 @@
         <v>0.99059909582138062</v>
       </c>
       <c r="D651">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E651">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17314,11 +16664,10 @@
         <v>1.4940375462174421E-2</v>
       </c>
       <c r="D652">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E652">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17333,11 +16682,10 @@
         <v>1.4348894357681269E-2</v>
       </c>
       <c r="D653">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E653">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17352,11 +16700,10 @@
         <v>1.4517216943204399E-2</v>
       </c>
       <c r="D654">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E654">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17371,11 +16718,10 @@
         <v>1.482359599322081E-2</v>
       </c>
       <c r="D655">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E655">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17390,11 +16736,10 @@
         <v>6.2903016805648804E-2</v>
       </c>
       <c r="D656">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E656">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17409,11 +16754,10 @@
         <v>1.483280584216118E-2</v>
       </c>
       <c r="D657">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E657">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17428,11 +16772,10 @@
         <v>2.185323461890221E-2</v>
       </c>
       <c r="D658">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E658">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17447,11 +16790,10 @@
         <v>1.4569626189768309E-2</v>
       </c>
       <c r="D659">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E659">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17466,11 +16808,10 @@
         <v>1.424522045999765E-2</v>
       </c>
       <c r="D660">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E660">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17485,11 +16826,10 @@
         <v>0.99010604619979858</v>
       </c>
       <c r="D661">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E661">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F661">
@@ -17507,11 +16847,10 @@
         <v>0.1045007705688477</v>
       </c>
       <c r="D662">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E662">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17526,11 +16865,10 @@
         <v>1.552912779152393E-2</v>
       </c>
       <c r="D663">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E663">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17545,11 +16883,10 @@
         <v>1.445617154240608E-2</v>
       </c>
       <c r="D664">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E664">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17564,11 +16901,10 @@
         <v>0.20968981087207789</v>
       </c>
       <c r="D665">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E665">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17583,11 +16919,10 @@
         <v>1.451148837804794E-2</v>
       </c>
       <c r="D666">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E666">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17602,11 +16937,10 @@
         <v>0.94142395257949829</v>
       </c>
       <c r="D667">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E667">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F667">
@@ -17624,11 +16958,10 @@
         <v>1.41686899587512E-2</v>
       </c>
       <c r="D668">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E668">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17643,11 +16976,10 @@
         <v>2.6149259880185131E-2</v>
       </c>
       <c r="D669">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E669">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17662,11 +16994,10 @@
         <v>2.0375171676278111E-2</v>
       </c>
       <c r="D670">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E670">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17681,11 +17012,10 @@
         <v>1.478273421525955E-2</v>
       </c>
       <c r="D671">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E671">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17700,11 +17030,10 @@
         <v>1.44366268068552E-2</v>
       </c>
       <c r="D672">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E672">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17719,11 +17048,10 @@
         <v>0.98437172174453735</v>
       </c>
       <c r="D673">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E673">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17738,11 +17066,10 @@
         <v>1.5998739749193192E-2</v>
       </c>
       <c r="D674">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E674">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17757,11 +17084,10 @@
         <v>1.4638411812484259E-2</v>
       </c>
       <c r="D675">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E675">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17776,11 +17102,10 @@
         <v>1.418663747608662E-2</v>
       </c>
       <c r="D676">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E676">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17795,11 +17120,10 @@
         <v>1.488647796213627E-2</v>
       </c>
       <c r="D677">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E677">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17814,11 +17138,10 @@
         <v>1.454011537134647E-2</v>
       </c>
       <c r="D678">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E678">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17833,11 +17156,10 @@
         <v>2.116887271404266E-2</v>
       </c>
       <c r="D679">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E679">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17852,11 +17174,10 @@
         <v>1.4734745025634771E-2</v>
       </c>
       <c r="D680">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E680">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17871,11 +17192,10 @@
         <v>1.421005092561245E-2</v>
       </c>
       <c r="D681">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E681">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17890,11 +17210,10 @@
         <v>1.462931465357542E-2</v>
       </c>
       <c r="D682">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E682">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17909,11 +17228,10 @@
         <v>1.4157396741211409E-2</v>
       </c>
       <c r="D683">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E683">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17928,11 +17246,10 @@
         <v>1.421085745096207E-2</v>
       </c>
       <c r="D684">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E684">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17947,11 +17264,10 @@
         <v>1.487310603260994E-2</v>
       </c>
       <c r="D685">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E685">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17966,11 +17282,10 @@
         <v>1.4520355500280861E-2</v>
       </c>
       <c r="D686">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E686">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17985,11 +17300,10 @@
         <v>1.448654383420944E-2</v>
       </c>
       <c r="D687">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E687">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18004,11 +17318,10 @@
         <v>1.663946732878685E-2</v>
       </c>
       <c r="D688">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E688">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18023,11 +17336,10 @@
         <v>1.517149060964584E-2</v>
       </c>
       <c r="D689">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E689">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18042,11 +17354,10 @@
         <v>1.473028119653463E-2</v>
       </c>
       <c r="D690">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E690">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18061,11 +17372,10 @@
         <v>1.73714142292738E-2</v>
       </c>
       <c r="D691">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E691">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18080,11 +17390,10 @@
         <v>1.436091866344213E-2</v>
       </c>
       <c r="D692">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E692">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18099,11 +17408,10 @@
         <v>1.4657869003713129E-2</v>
       </c>
       <c r="D693">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E693">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18118,11 +17426,10 @@
         <v>1.4695229940116411E-2</v>
       </c>
       <c r="D694">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E694">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18137,11 +17444,10 @@
         <v>0.33099612593650818</v>
       </c>
       <c r="D695">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E695">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18156,11 +17462,10 @@
         <v>2.8706524521112439E-2</v>
       </c>
       <c r="D696">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E696">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18175,11 +17480,10 @@
         <v>1.420980878174305E-2</v>
       </c>
       <c r="D697">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E697">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18194,11 +17498,10 @@
         <v>1.41857173293829E-2</v>
       </c>
       <c r="D698">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E698">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18213,11 +17516,10 @@
         <v>1.433805469423532E-2</v>
       </c>
       <c r="D699">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E699">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18232,11 +17534,10 @@
         <v>1.5886913985013958E-2</v>
       </c>
       <c r="D700">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E700">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18251,11 +17552,10 @@
         <v>1.418646331876516E-2</v>
       </c>
       <c r="D701">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E701">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18270,11 +17570,10 @@
         <v>4.4139772653579712E-2</v>
       </c>
       <c r="D702">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E702">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18289,11 +17588,10 @@
         <v>1.471332274377346E-2</v>
       </c>
       <c r="D703">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E703">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18308,11 +17606,10 @@
         <v>3.1112644821405411E-2</v>
       </c>
       <c r="D704">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E704">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18327,11 +17624,10 @@
         <v>1.7806015908718109E-2</v>
       </c>
       <c r="D705">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E705">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18346,11 +17642,10 @@
         <v>2.3152457550168041E-2</v>
       </c>
       <c r="D706">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E706">
-        <f t="shared" ref="E706:E735" si="22">IF(ISBLANK(F706),D706,F706)</f>
         <v>0</v>
       </c>
     </row>
@@ -18365,11 +17660,10 @@
         <v>0.98761343955993652</v>
       </c>
       <c r="D707">
-        <f t="shared" ref="D707:D735" si="23">IF(C707&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D707:D735" si="11">IF(C707&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E707">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F707">
@@ -18387,11 +17681,10 @@
         <v>1.9300831481814381E-2</v>
       </c>
       <c r="D708">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E708">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18406,11 +17699,10 @@
         <v>1.4668389223515991E-2</v>
       </c>
       <c r="D709">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E709">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18425,11 +17717,10 @@
         <v>1.47301284596324E-2</v>
       </c>
       <c r="D710">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E710">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18444,11 +17735,10 @@
         <v>1.4396556653082371E-2</v>
       </c>
       <c r="D711">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E711">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18463,11 +17753,10 @@
         <v>1.7809676006436351E-2</v>
       </c>
       <c r="D712">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E712">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18482,11 +17771,10 @@
         <v>1.515886466950178E-2</v>
       </c>
       <c r="D713">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E713">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18501,11 +17789,10 @@
         <v>1.435690186917782E-2</v>
       </c>
       <c r="D714">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E714">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18520,11 +17807,10 @@
         <v>1.4304842799901961E-2</v>
       </c>
       <c r="D715">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E715">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18539,11 +17825,10 @@
         <v>1.8216494470834729E-2</v>
       </c>
       <c r="D716">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E716">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18558,11 +17843,10 @@
         <v>2.65234000980854E-2</v>
       </c>
       <c r="D717">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E717">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18577,11 +17861,10 @@
         <v>1.4399047940969471E-2</v>
       </c>
       <c r="D718">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E718">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18596,11 +17879,10 @@
         <v>1.4211118221282961E-2</v>
       </c>
       <c r="D719">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E719">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18615,11 +17897,10 @@
         <v>1.480283867567778E-2</v>
       </c>
       <c r="D720">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E720">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18634,11 +17915,10 @@
         <v>1.7309525981545448E-2</v>
       </c>
       <c r="D721">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E721">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18653,11 +17933,10 @@
         <v>2.4400666356086731E-2</v>
       </c>
       <c r="D722">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E722">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18672,11 +17951,10 @@
         <v>1.464356482028961E-2</v>
       </c>
       <c r="D723">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E723">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18691,11 +17969,10 @@
         <v>1.532669924199581E-2</v>
       </c>
       <c r="D724">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E724">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18710,11 +17987,10 @@
         <v>1.4460316859185701E-2</v>
       </c>
       <c r="D725">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E725">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18729,11 +18005,10 @@
         <v>1.426306925714016E-2</v>
       </c>
       <c r="D726">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E726">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18748,11 +18023,10 @@
         <v>2.3126142099499699E-2</v>
       </c>
       <c r="D727">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E727">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18767,11 +18041,10 @@
         <v>1.4668339863419529E-2</v>
       </c>
       <c r="D728">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E728">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18786,11 +18059,10 @@
         <v>1.4815325848758221E-2</v>
       </c>
       <c r="D729">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E729">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18805,11 +18077,10 @@
         <v>0.98814022541046143</v>
       </c>
       <c r="D730">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E730">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -18824,11 +18095,10 @@
         <v>1.46169476211071E-2</v>
       </c>
       <c r="D731">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E731">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18843,11 +18113,10 @@
         <v>1.533536612987518E-2</v>
       </c>
       <c r="D732">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E732">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18862,11 +18131,10 @@
         <v>1.4430420473217961E-2</v>
       </c>
       <c r="D733">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E733">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18881,11 +18149,10 @@
         <v>1.465754490345716E-2</v>
       </c>
       <c r="D734">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E734">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18900,11 +18167,10 @@
         <v>1.5696000307798389E-2</v>
       </c>
       <c r="D735">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E735">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
